--- a/tabela_comp.xlsx
+++ b/tabela_comp.xlsx
@@ -1,35 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28224"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioestebr-my.sharepoint.com/personal/leonardo_calsavara_unioeste_br/Documents/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B975A141-963E-4CE6-A8D1-8CA61EC96FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -38,106 +22,106 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="136">
   <si>
-    <t>_begin</t>
-  </si>
-  <si>
-    <t>_end</t>
-  </si>
-  <si>
-    <t>id;</t>
-  </si>
-  <si>
-    <t>_int</t>
-  </si>
-  <si>
-    <t>_float</t>
-  </si>
-  <si>
-    <t>_bool</t>
-  </si>
-  <si>
-    <t>(</t>
+    <t xml:space="preserve">_begin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_bool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(</t>
   </si>
   <si>
     <t xml:space="preserve">) </t>
   </si>
   <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>}</t>
+    <t xml:space="preserve">{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">}</t>
   </si>
   <si>
     <t xml:space="preserve">; </t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>"str"</t>
-  </si>
-  <si>
-    <t>_if</t>
-  </si>
-  <si>
-    <t>_while</t>
-  </si>
-  <si>
-    <t>_for</t>
-  </si>
-  <si>
-    <t>_receba</t>
-  </si>
-  <si>
-    <t>_seliga</t>
-  </si>
-  <si>
-    <t>++</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>_true</t>
-  </si>
-  <si>
-    <t>_false</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>_pot</t>
-  </si>
-  <si>
-    <t>num</t>
-  </si>
-  <si>
-    <t>!id</t>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"str"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_while</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_receba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_seliga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_pot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!id</t>
   </si>
   <si>
     <t xml:space="preserve">&amp; </t>
   </si>
   <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t> ::</t>
+    <t xml:space="preserve">|</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ::</t>
   </si>
   <si>
     <t xml:space="preserve">&gt; </t>
@@ -152,36 +136,38 @@
     <t xml:space="preserve"> !=  </t>
   </si>
   <si>
-    <t>&gt;=</t>
-  </si>
-  <si>
-    <t>_else</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>&lt;prog&gt;</t>
-  </si>
-  <si>
-    <t>&lt;prog&gt; -&gt; _begin &lt;decls&gt; &lt;contx&gt; _end</t>
-  </si>
-  <si>
-    <t>ERRO</t>
-  </si>
-  <si>
-    <t>&lt;prog&gt; -&gt; vazio</t>
-  </si>
-  <si>
-    <t>&lt;decls&gt;</t>
+    <t xml:space="preserve">&gt;=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;prog&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;prog&gt; -&gt; _begin &lt;decls&gt; &lt;contx&gt; _end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;prog&gt; -&gt; vazio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;decls&gt;</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;decls&gt; -&gt; </t>
     </r>
@@ -190,18 +176,27 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;dec&gt; &lt;decls&gt; </t>
     </r>
   </si>
   <si>
-    <t>&lt;decls&gt; -&gt; vazio</t>
-  </si>
-  <si>
-    <t>&lt;dec&gt;</t>
+    <t xml:space="preserve">&lt;decls&gt; -&gt; vazio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;dec&gt;</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">&lt;dec&gt; -&gt; </t>
     </r>
     <r>
@@ -212,65 +207,71 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>&lt;type&gt;&lt;dec’&gt; </t>
+      <t xml:space="preserve">&lt;type&gt;&lt;dec’&gt; </t>
     </r>
   </si>
   <si>
-    <t>sinc</t>
-  </si>
-  <si>
-    <t>&lt;dec’&gt;</t>
-  </si>
-  <si>
-    <t>&lt;dec’&gt; -&gt; id;</t>
-  </si>
-  <si>
-    <t>&lt;dec’&gt; -&gt; &lt;at&gt;</t>
-  </si>
-  <si>
-    <t>&lt;type&gt;</t>
+    <t xml:space="preserve">sinc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;dec’&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;dec’&gt; -&gt; id;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;dec’&gt; -&gt; &lt;at&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;type&gt;</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>&lt;type&gt; -&gt;</t>
+      <t xml:space="preserve">&lt;type&gt; -&gt;</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> _int </t>
     </r>
   </si>
   <si>
-    <t>&lt;type&gt; -&gt; _float</t>
-  </si>
-  <si>
-    <t>&lt;type&gt; -&gt; _bool</t>
-  </si>
-  <si>
-    <t>&lt;contx&gt;</t>
-  </si>
-  <si>
-    <t>&lt;contx&gt; -&gt; vazio</t>
-  </si>
-  <si>
-    <t>&lt;contx&gt; -&gt; &lt;at&gt; &lt;contx&gt;</t>
+    <t xml:space="preserve">&lt;type&gt; -&gt; _float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;type&gt; -&gt; _bool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;contx&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;contx&gt; -&gt; vazio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;contx&gt; -&gt; &lt;at&gt; &lt;contx&gt;</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;contx&gt; -&gt; </t>
     </r>
@@ -279,35 +280,39 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>&lt;if&gt; (cond) { &lt;contx’&gt;} &lt;else&gt; {&lt;contx’&gt;} &lt;contx&gt;</t>
+      <t xml:space="preserve">&lt;if&gt; (cond) { &lt;contx’&gt;} &lt;else&gt; {&lt;contx’&gt;} &lt;contx&gt;</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">&lt;contx&gt; -&gt; &lt;while&gt; (&lt;cond&gt;){&lt;contx’&gt;} &lt;contx&gt; </t>
   </si>
   <si>
-    <t>&lt;contx&gt; -&gt; &lt;for&gt; (&lt;dec&gt;&lt;cond&gt;; id&lt;id_for&gt;){&lt;contx’&gt;} &lt;contx&gt;</t>
-  </si>
-  <si>
-    <t>&lt;contx&gt; -&gt; &lt;receba&gt; (id); &lt;contx&gt;</t>
+    <t xml:space="preserve">&lt;contx&gt; -&gt; &lt;for&gt; (&lt;dec&gt;&lt;cond&gt;; id&lt;id_for&gt;){&lt;contx’&gt;} &lt;contx&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;contx&gt; -&gt; &lt;receba&gt; (id); &lt;contx&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;contx&gt; -&gt;  &lt;seliga&gt;("str", &lt;ids&gt;); &lt;contx&gt; </t>
   </si>
   <si>
-    <t>&lt;contx’&gt;</t>
-  </si>
-  <si>
-    <t>&lt;contx'&gt; -&gt; &lt;at&gt; &lt;contx&gt;</t>
+    <t xml:space="preserve">&lt;contx’&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;contx'&gt; -&gt; &lt;at&gt; &lt;contx&gt;</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;contx'&gt; -&gt; </t>
     </r>
@@ -316,62 +321,75 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>&lt;if&gt; (cond) { &lt;contx’&gt;} &lt;else&gt; {&lt;contx’&gt;} &lt;contx&gt;</t>
+      <t xml:space="preserve">&lt;if&gt; (cond) { &lt;contx’&gt;} &lt;else&gt; {&lt;contx’&gt;} &lt;contx&gt;</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">&lt;contx'&gt; -&gt; &lt;while&gt; (&lt;cond&gt;){&lt;contx’&gt;} &lt;contx&gt; </t>
   </si>
   <si>
-    <t>&lt;contx'&gt; -&gt; &lt;for&gt; (&lt;dec&gt;&lt;cond&gt;; id&lt;id_for&gt;){&lt;contx’&gt;} &lt;contx&gt;</t>
-  </si>
-  <si>
-    <t>&lt;contx'&gt; -&gt; &lt;receba&gt; (id); &lt;contx&gt;</t>
+    <t xml:space="preserve">&lt;contx'&gt; -&gt; &lt;for&gt; (&lt;dec&gt;&lt;cond&gt;; id&lt;id_for&gt;){&lt;contx’&gt;} &lt;contx&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;contx'&gt; -&gt; &lt;receba&gt; (id); &lt;contx&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;contx'&gt; -&gt;  &lt;seliga&gt;("str", &lt;ids&gt;); &lt;contx&gt; </t>
   </si>
   <si>
-    <t>&lt;if&gt;</t>
-  </si>
-  <si>
-    <t>&lt;if&gt; -&gt; _if</t>
-  </si>
-  <si>
-    <t>&lt;else&gt;</t>
-  </si>
-  <si>
-    <t>&lt;else&gt; -&gt; vazio</t>
-  </si>
-  <si>
-    <t>&lt;else&gt; -&gt; _else</t>
-  </si>
-  <si>
-    <t>&lt;ids&gt;</t>
+    <t xml:space="preserve">&lt;if&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;if&gt; -&gt; _if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;else&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;else&gt; -&gt; vazio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;else&gt; -&gt; _else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ids&gt;</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>&lt;ids&gt; -&gt;</t>
+      <t xml:space="preserve">&lt;ids&gt; -&gt;</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> vazio</t>
     </r>
   </si>
   <si>
     <r>
-      <t>&lt;ids&gt; -&gt;</t>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;ids&gt; -&gt;</t>
     </r>
     <r>
       <rPr>
@@ -385,21 +403,23 @@
     </r>
   </si>
   <si>
-    <t>&lt;receba&gt;</t>
-  </si>
-  <si>
-    <t>&lt;receba&gt; -&gt; _receba</t>
-  </si>
-  <si>
-    <t>&lt;at&gt;</t>
+    <t xml:space="preserve">&lt;receba&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;receba&gt; -&gt; _receba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;at&gt;</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> &lt;at&gt; -&gt; </t>
     </r>
@@ -408,30 +428,39 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>id = &lt;at’&gt;</t>
+      <t xml:space="preserve">id = &lt;at’&gt;</t>
     </r>
   </si>
   <si>
-    <t>&lt;at’&gt;</t>
-  </si>
-  <si>
-    <t>&lt;at’&gt; -&gt; &lt;id_num&gt; &lt;expr&gt;</t>
-  </si>
-  <si>
-    <t>&lt;at’&gt; -&gt; _true</t>
-  </si>
-  <si>
-    <t>&lt;at’&gt; -&gt; _false</t>
-  </si>
-  <si>
-    <t>&lt;expr&gt;</t>
-  </si>
-  <si>
-    <t>&lt;expr&gt; -&gt; ;</t>
+    <t xml:space="preserve">&lt;at’&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;at’&gt; -&gt; &lt;id_num&gt; &lt;expr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;at’&gt; -&gt; _true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;at’&gt; -&gt; _false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;expr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;expr&gt; -&gt; ;</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">&lt;expr&gt; -&gt;  </t>
     </r>
     <r>
@@ -442,14 +471,21 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>&lt;opr&gt; &lt;expr’&gt;</t>
+      <t xml:space="preserve">&lt;opr&gt; &lt;expr’&gt;</t>
     </r>
   </si>
   <si>
-    <t>&lt;expr’&gt;</t>
+    <t xml:space="preserve">&lt;expr’&gt;</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">&lt;expr’&gt; -&gt; </t>
     </r>
     <r>
@@ -460,22 +496,27 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>&lt;id_num&gt; &lt;expr&gt;</t>
+      <t xml:space="preserve">&lt;id_num&gt; &lt;expr&gt;</t>
     </r>
   </si>
   <si>
-    <t>&lt;expr'&gt; -&gt; &lt;pot&gt; (&lt;id_num&gt;, &lt;id_num&gt;) &lt;expr&gt;</t>
-  </si>
-  <si>
-    <t>&lt;opr&gt;</t>
+    <t xml:space="preserve">&lt;expr'&gt; -&gt; &lt;pot&gt; (&lt;id_num&gt;, &lt;id_num&gt;) &lt;expr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;opr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;opr&gt; -&gt; +</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;opr&gt; -&gt; </t>
     </r>
@@ -484,17 +525,21 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>+</t>
+      <t xml:space="preserve">- </t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;opr&gt; -&gt; </t>
     </r>
@@ -503,85 +548,83 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">- </t>
+      <t xml:space="preserve"> /  </t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;opr&gt; -&gt; </t>
+      <t xml:space="preserve">&lt;opr&gt; -&gt;</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> /  </t>
+      <t xml:space="preserve">*</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;pot&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;POT&gt; -&gt; _pot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;id_num&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;id_num&gt; -&gt; id</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>&lt;opr&gt; -&gt;</t>
+      <t xml:space="preserve">&lt;id_num&gt; -&gt;</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;pot&gt;</t>
-  </si>
-  <si>
-    <t>&lt;POT&gt; -&gt; _pot</t>
-  </si>
-  <si>
-    <t>&lt;id_num&gt;</t>
-  </si>
-  <si>
-    <t>&lt;id_num&gt; -&gt; id</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>&lt;id_num&gt; -&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> num</t>
     </r>
   </si>
   <si>
-    <t>&lt;cond&gt;</t>
+    <t xml:space="preserve">&lt;cond&gt;</t>
   </si>
   <si>
     <r>
-      <t>&lt;cond&gt; -&gt;</t>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;cond&gt; -&gt;</t>
     </r>
     <r>
       <rPr>
@@ -597,31 +640,42 @@
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>&lt;cond&gt; -&gt;</t>
+      <t xml:space="preserve">&lt;cond&gt; -&gt;</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> !id &lt;cond”&gt;</t>
     </r>
   </si>
   <si>
-    <t>&lt;cond’&gt;</t>
-  </si>
-  <si>
-    <t>&lt;cond'&gt; -&gt; vazio</t>
+    <t xml:space="preserve">&lt;cond’&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;cond'&gt; -&gt; vazio</t>
   </si>
   <si>
     <r>
-      <t>&lt;cond’&gt;</t>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;cond’&gt;</t>
     </r>
     <r>
       <rPr>
@@ -635,13 +689,20 @@
     </r>
   </si>
   <si>
-    <t>&lt;cond”&gt;</t>
-  </si>
-  <si>
-    <t>&lt;cond''&gt; -&gt; vazio</t>
+    <t xml:space="preserve">&lt;cond”&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;cond''&gt; -&gt; vazio</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">&lt;cond”&gt; -&gt; </t>
     </r>
     <r>
@@ -652,19 +713,21 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>&lt;logicos&gt; &lt;cond&gt;</t>
+      <t xml:space="preserve">&lt;logicos&gt; &lt;cond&gt;</t>
     </r>
   </si>
   <si>
-    <t>&lt;operadores&gt;</t>
+    <t xml:space="preserve">&lt;operadores&gt;</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;operadores&gt; -&gt; </t>
     </r>
@@ -673,56 +736,66 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>&lt;logicos&gt;</t>
+      <t xml:space="preserve">&lt;logicos&gt;</t>
     </r>
   </si>
   <si>
-    <t>&lt;operadores&gt; -&gt; &lt;relacional&gt;</t>
-  </si>
-  <si>
-    <t>&lt;logicos&gt;</t>
+    <t xml:space="preserve">&lt;operadores&gt; -&gt; &lt;relacional&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;logicos&gt;</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>&lt;logicos&gt; -&gt;</t>
+      <t xml:space="preserve">&lt;logicos&gt; -&gt;</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> &amp; </t>
     </r>
   </si>
   <si>
-    <t>&lt;logicos&gt; -&gt; |</t>
-  </si>
-  <si>
-    <t>&lt;relacional&gt;</t>
+    <t xml:space="preserve">&lt;logicos&gt; -&gt; |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;relacional&gt;</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>&lt;relacional&gt; -&gt;</t>
+      <t xml:space="preserve">&lt;relacional&gt; -&gt;</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> :: </t>
     </r>
@@ -730,18 +803,22 @@
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>&lt;relacional&gt; -&gt;</t>
+      <t xml:space="preserve">&lt;relacional&gt; -&gt;</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> &gt; </t>
     </r>
@@ -749,18 +826,22 @@
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>&lt;relacional&gt; -&gt;</t>
+      <t xml:space="preserve">&lt;relacional&gt; -&gt;</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> &lt; </t>
     </r>
@@ -768,18 +849,22 @@
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>&lt;relacional&gt; -&gt;</t>
+      <t xml:space="preserve">&lt;relacional&gt; -&gt;</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> &lt;= </t>
     </r>
@@ -787,18 +872,22 @@
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>&lt;relacional&gt; -&gt;</t>
+      <t xml:space="preserve">&lt;relacional&gt; -&gt;</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> != </t>
     </r>
@@ -806,67 +895,111 @@
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>&lt;relacional&gt; -&gt;</t>
+      <t xml:space="preserve">&lt;relacional&gt; -&gt;</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> &gt;=</t>
     </r>
   </si>
   <si>
-    <t>&lt;while&gt;</t>
-  </si>
-  <si>
-    <t>&lt;while&gt; -&gt; _while</t>
-  </si>
-  <si>
-    <t>&lt;for&gt;</t>
-  </si>
-  <si>
-    <t>&lt;for&gt; -&gt; _for</t>
-  </si>
-  <si>
-    <t>&lt;id_for&gt;</t>
-  </si>
-  <si>
-    <t>&lt;id_for&gt; -&gt; ++</t>
-  </si>
-  <si>
-    <t>&lt;id_for&gt; -&gt; --</t>
-  </si>
-  <si>
-    <t>&lt;seliga&gt;</t>
-  </si>
-  <si>
-    <t>&lt;seliga&gt; -&gt; _seliga</t>
+    <t xml:space="preserve">&lt;while&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;while&gt; -&gt; _while</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;for&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;for&gt; -&gt; _for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;id_for&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;id_for&gt; -&gt; ++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;id_for&gt; -&gt; --</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;seliga&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;seliga&gt; -&gt; _seliga</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF242424"/>
+      <name val="arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -874,59 +1007,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF242424"/>
-      <name val="Aptos Narrow"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -940,478 +1020,257 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFF8F9FA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8F9FA"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="3">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
+  <cellXfs count="14">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFF8F9FA"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF242424"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="0E2841"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="145F82"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="E87331"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="186C24"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="A02B93"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="4EA72E"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="467886"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="96607D"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AP29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AP19" sqref="AP19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="30.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
-    <col min="13" max="13" width="27.42578125" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" customWidth="1"/>
-    <col min="15" max="15" width="56.42578125" customWidth="1"/>
-    <col min="16" max="16" width="42.42578125" customWidth="1"/>
-    <col min="17" max="17" width="54.140625" customWidth="1"/>
-    <col min="18" max="18" width="38.5703125" customWidth="1"/>
-    <col min="19" max="19" width="49.140625" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" customWidth="1"/>
-    <col min="21" max="21" width="27.28515625" customWidth="1"/>
-    <col min="22" max="22" width="21.42578125" customWidth="1"/>
-    <col min="24" max="24" width="24.85546875" customWidth="1"/>
-    <col min="25" max="25" width="24.28515625" customWidth="1"/>
-    <col min="26" max="26" width="26.5703125" customWidth="1"/>
-    <col min="27" max="27" width="26.28515625" customWidth="1"/>
-    <col min="28" max="28" width="28" customWidth="1"/>
-    <col min="29" max="29" width="26.7109375" customWidth="1"/>
-    <col min="30" max="30" width="43" customWidth="1"/>
-    <col min="31" max="31" width="27.85546875" customWidth="1"/>
-    <col min="32" max="32" width="23.7109375" customWidth="1"/>
-    <col min="33" max="33" width="32.5703125" customWidth="1"/>
-    <col min="34" max="34" width="33.85546875" customWidth="1"/>
-    <col min="35" max="35" width="34.5703125" customWidth="1"/>
-    <col min="36" max="36" width="32" customWidth="1"/>
-    <col min="37" max="37" width="34.7109375" customWidth="1"/>
-    <col min="38" max="38" width="33.42578125" customWidth="1"/>
-    <col min="39" max="39" width="34.140625" customWidth="1"/>
-    <col min="40" max="40" width="34" customWidth="1"/>
-    <col min="41" max="41" width="40.42578125" customWidth="1"/>
-    <col min="42" max="42" width="48.140625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="26"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="30.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="27.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="56.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="42.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="54.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="38.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="49.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="19.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="21.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="24.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="24.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="26.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="26.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="26.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="27.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="23.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="32.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="33.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="34.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="34.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="33.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="34.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="40.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="48.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="43" style="1" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1532,7 +1391,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>41</v>
       </c>
@@ -1660,7 +1519,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>45</v>
       </c>
@@ -1788,7 +1647,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>48</v>
       </c>
@@ -1801,13 +1660,13 @@
       <c r="D4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -1825,7 +1684,7 @@
       <c r="L4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -1916,7 +1775,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>51</v>
       </c>
@@ -1926,16 +1785,16 @@
       <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -2044,7 +1903,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
@@ -2057,7 +1916,7 @@
       <c r="D6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>55</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -2172,7 +2031,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>58</v>
       </c>
@@ -2203,7 +2062,7 @@
       <c r="J7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="2" t="s">
         <v>59</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -2300,7 +2159,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>66</v>
       </c>
@@ -2428,7 +2287,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>73</v>
       </c>
@@ -2556,7 +2415,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>75</v>
       </c>
@@ -2684,7 +2543,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>78</v>
       </c>
@@ -2748,7 +2607,7 @@
       <c r="U11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="V11" s="10" t="s">
+      <c r="V11" s="2" t="s">
         <v>80</v>
       </c>
       <c r="W11" s="2" t="s">
@@ -2812,7 +2671,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:42">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -2940,7 +2799,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:42">
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>83</v>
       </c>
@@ -3068,7 +2927,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:42">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
         <v>85</v>
       </c>
@@ -3138,7 +2997,7 @@
       <c r="W14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="X14" s="10" t="s">
+      <c r="X14" s="2" t="s">
         <v>87</v>
       </c>
       <c r="Y14" s="2" t="s">
@@ -3196,7 +3055,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>89</v>
       </c>
@@ -3230,7 +3089,7 @@
       <c r="K15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M15" s="2" t="s">
@@ -3272,16 +3131,16 @@
       <c r="Y15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z15" s="10" t="s">
+      <c r="Z15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AA15" s="10" t="s">
+      <c r="AA15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AB15" s="10" t="s">
+      <c r="AB15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AC15" s="10" t="s">
+      <c r="AC15" s="2" t="s">
         <v>91</v>
       </c>
       <c r="AD15" s="2" t="s">
@@ -3324,7 +3183,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
         <v>92</v>
       </c>
@@ -3361,7 +3220,7 @@
       <c r="L16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="M16" s="2" t="s">
         <v>93</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3415,7 +3274,7 @@
       <c r="AD16" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AE16" s="10" t="s">
+      <c r="AE16" s="2" t="s">
         <v>93</v>
       </c>
       <c r="AF16" s="2" t="s">
@@ -3452,7 +3311,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:42">
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>95</v>
       </c>
@@ -3528,16 +3387,16 @@
       <c r="Y17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z17" s="8" t="s">
+      <c r="Z17" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="AA17" s="8" t="s">
+      <c r="AA17" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AB17" s="8" t="s">
+      <c r="AB17" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="AC17" s="8" t="s">
+      <c r="AC17" s="9" t="s">
         <v>99</v>
       </c>
       <c r="AD17" s="2" t="s">
@@ -3580,7 +3439,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:42">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>100</v>
       </c>
@@ -3708,7 +3567,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:42">
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>102</v>
       </c>
@@ -3836,7 +3695,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:42">
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
         <v>105</v>
       </c>
@@ -3873,7 +3732,7 @@
       <c r="L20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="2" t="s">
         <v>106</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -3927,7 +3786,7 @@
       <c r="AD20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AE20" s="10" t="s">
+      <c r="AE20" s="2" t="s">
         <v>106</v>
       </c>
       <c r="AF20" s="7" t="s">
@@ -3964,7 +3823,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:42">
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>108</v>
       </c>
@@ -4061,28 +3920,28 @@
       <c r="AF21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AG21" s="10" t="s">
+      <c r="AG21" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AH21" s="10" t="s">
+      <c r="AH21" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AI21" s="10" t="s">
+      <c r="AI21" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AJ21" s="10" t="s">
+      <c r="AJ21" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AK21" s="10" t="s">
+      <c r="AK21" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AL21" s="10" t="s">
+      <c r="AL21" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AM21" s="10" t="s">
+      <c r="AM21" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AN21" s="10" t="s">
+      <c r="AN21" s="2" t="s">
         <v>110</v>
       </c>
       <c r="AO21" s="2" t="s">
@@ -4092,7 +3951,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:42">
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
         <v>111</v>
       </c>
@@ -4189,10 +4048,10 @@
       <c r="AF22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AG22" s="10" t="s">
+      <c r="AG22" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AH22" s="10" t="s">
+      <c r="AH22" s="2" t="s">
         <v>113</v>
       </c>
       <c r="AI22" s="2" t="s">
@@ -4220,7 +4079,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:42">
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
         <v>114</v>
       </c>
@@ -4348,7 +4207,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:42">
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
         <v>117</v>
       </c>
@@ -4448,7 +4307,7 @@
       <c r="AG24" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="AH24" s="11" t="s">
+      <c r="AH24" s="2" t="s">
         <v>119</v>
       </c>
       <c r="AI24" s="2" t="s">
@@ -4476,8 +4335,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:42">
-      <c r="A25" s="14" t="s">
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="11" t="s">
         <v>120</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -4513,7 +4372,7 @@
       <c r="L25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M25" s="15" t="s">
+      <c r="M25" s="12" t="s">
         <v>50</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -4567,10 +4426,10 @@
       <c r="AD25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AE25" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF25" s="15" t="s">
+      <c r="AE25" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF25" s="12" t="s">
         <v>50</v>
       </c>
       <c r="AG25" s="2" t="s">
@@ -4579,22 +4438,22 @@
       <c r="AH25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AI25" s="16" t="s">
+      <c r="AI25" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="AJ25" s="16" t="s">
+      <c r="AJ25" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="AK25" s="16" t="s">
+      <c r="AK25" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="AL25" s="16" t="s">
+      <c r="AL25" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="AM25" s="16" t="s">
+      <c r="AM25" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="AN25" s="16" t="s">
+      <c r="AN25" s="13" t="s">
         <v>126</v>
       </c>
       <c r="AO25" s="2" t="s">
@@ -4604,14 +4463,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:42">
-      <c r="A26" s="12" t="s">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -4635,31 +4494,31 @@
       <c r="J26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="2" t="s">
         <v>50</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M26" s="12" t="s">
+      <c r="M26" s="2" t="s">
         <v>50</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O26" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="P26" s="12" t="s">
+      <c r="O26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P26" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="Q26" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R26" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="S26" s="12" t="s">
+      <c r="Q26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S26" s="2" t="s">
         <v>50</v>
       </c>
       <c r="T26" s="2" t="s">
@@ -4732,14 +4591,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:42">
-      <c r="A27" s="12" t="s">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -4763,31 +4622,31 @@
       <c r="J27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="K27" s="2" t="s">
         <v>50</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M27" s="12" t="s">
+      <c r="M27" s="2" t="s">
         <v>50</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O27" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="P27" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q27" s="12" t="s">
+      <c r="O27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q27" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="R27" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="S27" s="12" t="s">
+      <c r="R27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S27" s="2" t="s">
         <v>50</v>
       </c>
       <c r="T27" s="2" t="s">
@@ -4860,8 +4719,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:42">
-      <c r="A28" s="12" t="s">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -4885,7 +4744,7 @@
       <c r="H28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J28" s="2" t="s">
@@ -4918,10 +4777,10 @@
       <c r="S28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="T28" s="12" t="s">
+      <c r="T28" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="U28" s="13" t="s">
+      <c r="U28" s="2" t="s">
         <v>133</v>
       </c>
       <c r="V28" s="2" t="s">
@@ -4988,14 +4847,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:42">
-      <c r="A29" s="12" t="s">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -5019,31 +4878,31 @@
       <c r="J29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K29" s="2" t="s">
         <v>50</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="M29" s="2" t="s">
         <v>50</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O29" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="P29" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q29" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R29" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="S29" s="12" t="s">
+      <c r="O29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S29" s="2" t="s">
         <v>135</v>
       </c>
       <c r="T29" s="2" t="s">
@@ -5117,19 +4976,17 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="97651425-3362-4ddf-9ec3-4160ff4b44c4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5138,7 +4995,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010029E7B0A34555DE40A5A0426AAA539669" ma:contentTypeVersion="10" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="ed61ef3f733f031c50cc213d4169de40">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="97651425-3362-4ddf-9ec3-4160ff4b44c4" xmlns:ns4="6707ad17-fd97-45ac-870d-7d22539aa422" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ebea31f8499cfd1a341072f4d0e8a66" ns3:_="" ns4:_="">
     <xsd:import namespace="97651425-3362-4ddf-9ec3-4160ff4b44c4"/>
@@ -5341,14 +5198,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="97651425-3362-4ddf-9ec3-4160ff4b44c4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDCF9EA2-D955-4558-9005-5DBF1624760F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39B38144-D04D-4B84-8513-257F7943A53C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39B38144-D04D-4B84-8513-257F7943A53C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE35FDA6-CC1E-450A-A88A-061BF7D5EEE7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE35FDA6-CC1E-450A-A88A-061BF7D5EEE7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDCF9EA2-D955-4558-9005-5DBF1624760F}"/>
 </file>